--- a/js/earhart-fellows/RA/Institutions as of 2-13.xlsx
+++ b/js/earhart-fellows/RA/Institutions as of 2-13.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="155">
   <si>
     <t>gi_1</t>
   </si>
@@ -486,6 +486,9 @@
   </si>
   <si>
     <t xml:space="preserve">According to wiki: UT Austin, UT are possibly distinct. </t>
+  </si>
+  <si>
+    <t>Subcampuses</t>
   </si>
 </sst>
 </file>
@@ -838,10 +841,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14632F61-F464-4D18-9AF6-7B613154EAEC}">
-  <dimension ref="A1:E148"/>
+  <dimension ref="A1:F148"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -849,9 +852,10 @@
     <col min="1" max="1" width="36.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="0" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -867,8 +871,11 @@
       <c r="E1" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>107</v>
       </c>
@@ -882,7 +889,7 @@
         <v>98.7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>108</v>
       </c>
@@ -896,7 +903,7 @@
         <v>98.8</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>109</v>
       </c>
@@ -910,7 +917,7 @@
         <v>98.8</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>110</v>
       </c>
@@ -924,7 +931,7 @@
         <v>98.8</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>111</v>
       </c>
@@ -938,7 +945,7 @@
         <v>98.9</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>112</v>
       </c>
@@ -952,7 +959,7 @@
         <v>98.9</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>113</v>
       </c>
@@ -966,7 +973,7 @@
         <v>98.9</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>114</v>
       </c>
@@ -980,7 +987,7 @@
         <v>98.9</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>115</v>
       </c>
@@ -994,7 +1001,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>116</v>
       </c>
@@ -1008,7 +1015,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>117</v>
       </c>
@@ -1022,7 +1029,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>118</v>
       </c>
@@ -1036,7 +1043,7 @@
         <v>99.1</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>119</v>
       </c>
@@ -1050,7 +1057,7 @@
         <v>99.1</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>120</v>
       </c>
@@ -1064,7 +1071,7 @@
         <v>99.1</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>121</v>
       </c>
